--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1492535.543827065</v>
+        <v>1461452.100192269</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6437773.152925624</v>
+        <v>6437773.152925627</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8408862.856597129</v>
+        <v>8408862.856597131</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>13.88908314418412</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>130.8267161929831</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>127.2735794774787</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -797,7 +797,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2735794774789</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>40.63244338022742</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.884457866842999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>99.36495471764873</v>
+        <v>67.93234935571138</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.0946657902582</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -986,16 +986,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>69.83484498490527</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5882918047081</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>280.0276705937139</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>35.79391863867546</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.15737841164544</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1220,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>168.7733238636743</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.50387586212028</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>25.5578537124857</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
@@ -1381,13 +1381,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.5172363595786</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.6280301125427</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S12" t="n">
         <v>147.4755605575067</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>124.8390672247516</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>99.67218115413839</v>
       </c>
       <c r="U13" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>141.7571295937846</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>170.9561476586361</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T15" t="n">
         <v>185.9745311655613</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7158555947865</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>179.0329422106661</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>257.1065989391099</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>27.23435056966954</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T17" t="n">
         <v>217.7600659609929</v>
@@ -1909,10 +1909,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>206.6721808896839</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.1070287976934</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>284.2939940365704</v>
       </c>
       <c r="V19" t="n">
-        <v>95.04924321464425</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>312.916222957166</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>319.3037704263417</v>
+        <v>117.0692562133585</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.527021416403</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>159.5878967157962</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7842613601147</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I23" t="n">
         <v>132.732122105711</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.23435056966954</v>
+        <v>27.23435056966953</v>
       </c>
       <c r="S23" t="n">
         <v>162.6847975205958</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7600659609929</v>
+        <v>175.4889573474341</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>68.34237135230602</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>20.86640061708227</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.6008587491447</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -2569,13 +2569,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>319.3037704263417</v>
+        <v>89.40354202953711</v>
       </c>
       <c r="I26" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.918716818680123</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>20.46217855783375</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.4879877546006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2806,7 +2806,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>394.5682193107611</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>37.40025268526453</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>48.97190333672155</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>127.959751934126</v>
@@ -3006,10 +3006,10 @@
         <v>228.9402891135191</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>47.04748494953722</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.4042822623773</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H32" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>37.40025268526453</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>168.6760949109279</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>32.12381075633329</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>243.8111802897181</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -3280,7 +3280,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T35" t="n">
-        <v>213.457391184265</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3365,7 +3365,7 @@
         <v>93.79726647768435</v>
       </c>
       <c r="I36" t="n">
-        <v>49.3703437699577</v>
+        <v>49.37034376995769</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.13510798269152</v>
+        <v>26.13510798269151</v>
       </c>
       <c r="S36" t="n">
         <v>141.3836471952285</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>102.2783800496875</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S37" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2939940365704</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>175.0072368836632</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>410.9480201594387</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>162.6847975205958</v>
@@ -3559,19 +3559,19 @@
         <v>217.7600659609929</v>
       </c>
       <c r="U38" t="n">
-        <v>115.5245984095053</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>373.0250210221783</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.79726647768435</v>
       </c>
       <c r="I39" t="n">
-        <v>49.3703437699577</v>
+        <v>49.37034376995769</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.13510798269152</v>
+        <v>26.13510798269151</v>
       </c>
       <c r="S39" t="n">
         <v>141.3836471952285</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>89.77913340335893</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>203.7950511593192</v>
       </c>
       <c r="T40" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.04664151833276</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>410.9480201594387</v>
       </c>
       <c r="H41" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>132.732122105711</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.36868602543791</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7600659609929</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>258.9570339356205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>93.79726647768435</v>
       </c>
       <c r="I42" t="n">
-        <v>49.3703437699577</v>
+        <v>49.37034376995769</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.13510798269152</v>
+        <v>26.13510798269151</v>
       </c>
       <c r="S42" t="n">
         <v>141.3836471952285</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7842613601147</v>
+        <v>13.24710486781466</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3734588519956</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S43" t="n">
         <v>203.7950511593192</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>57.47022113985362</v>
       </c>
       <c r="H44" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.23435056966951</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2568888014727</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.43819136532149</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -4076,7 +4076,7 @@
         <v>93.79726647768435</v>
       </c>
       <c r="I45" t="n">
-        <v>49.3703437699577</v>
+        <v>49.37034376995769</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.13510798269152</v>
+        <v>26.13510798269151</v>
       </c>
       <c r="S45" t="n">
         <v>141.3836471952285</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.20728809407056</v>
+        <v>104.3048423107405</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7812841491240619</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>203.7950511593192</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.0452009605541</v>
+        <v>1587.034466406724</v>
       </c>
       <c r="C2" t="n">
-        <v>251.0452009605541</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="D2" t="n">
-        <v>251.0452009605541</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E2" t="n">
-        <v>251.0452009605541</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F2" t="n">
-        <v>240.9344143111285</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G2" t="n">
-        <v>228.8708318057205</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1969.064606885231</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>1969.064606885231</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>1969.064606885231</v>
       </c>
       <c r="X2" t="n">
-        <v>644.5870563847161</v>
+        <v>1587.034466406724</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.0452009605541</v>
+        <v>1587.034466406724</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>759.6333438441981</v>
+        <v>888.1925150335705</v>
       </c>
       <c r="C3" t="n">
         <v>759.6333438441981</v>
@@ -4412,10 +4412,10 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M3" t="n">
         <v>737.8796590913968</v>
@@ -4445,16 +4445,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1352.88998174257</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="W3" t="n">
-        <v>1111.57411297588</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="X3" t="n">
-        <v>1111.57411297588</v>
+        <v>1240.133284165252</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.052786625459</v>
+        <v>1047.611957814831</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.5049110754221</v>
+        <v>533.0406292458919</v>
       </c>
       <c r="C4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="D4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="E4" t="n">
-        <v>194.5049110754221</v>
+        <v>363.4246597075721</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y4" t="n">
-        <v>378.0602797598019</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.503683879563</v>
+        <v>1279.551704933737</v>
       </c>
       <c r="C5" t="n">
-        <v>152.503683879563</v>
+        <v>897.6179462665441</v>
       </c>
       <c r="D5" t="n">
-        <v>152.503683879563</v>
+        <v>524.7939814937677</v>
       </c>
       <c r="E5" t="n">
-        <v>152.503683879563</v>
+        <v>524.7939814937677</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3928972301374</v>
+        <v>110.642790803938</v>
       </c>
       <c r="G5" t="n">
         <v>42.02425610119923</v>
@@ -4570,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U5" t="n">
-        <v>1659.098493404309</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.119219300251</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W5" t="n">
-        <v>1322.119219300251</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="X5" t="n">
-        <v>940.0890788217441</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.5472233975821</v>
+        <v>1673.595244451756</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.5572604841334</v>
+        <v>792.6085166265278</v>
       </c>
       <c r="C6" t="n">
-        <v>556.5572604841334</v>
+        <v>630.9048438674826</v>
       </c>
       <c r="D6" t="n">
-        <v>417.7186234743454</v>
+        <v>492.0662068576946</v>
       </c>
       <c r="E6" t="n">
-        <v>270.6906135312166</v>
+        <v>345.0381969145658</v>
       </c>
       <c r="F6" t="n">
-        <v>270.6906135312166</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G6" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4649,49 +4649,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>2030.672557600461</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1812.177765198771</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1583.782142647105</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1342.466273880415</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>1144.54928575821</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>952.0279594077888</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.5599742716689</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.5599742716689</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.9637832951018</v>
+        <v>1089.748999113537</v>
       </c>
       <c r="C8" t="n">
-        <v>867.9637832951018</v>
+        <v>707.8152404463447</v>
       </c>
       <c r="D8" t="n">
-        <v>495.1398185223254</v>
+        <v>334.9912756735682</v>
       </c>
       <c r="E8" t="n">
-        <v>100.3540986284323</v>
+        <v>334.9912756735682</v>
       </c>
       <c r="F8" t="n">
-        <v>90.24331197900665</v>
+        <v>324.8804890241426</v>
       </c>
       <c r="G8" t="n">
-        <v>78.17972947359868</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>78.17972947359868</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V8" t="n">
-        <v>1262.007322813121</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>1483.792538631556</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>605.9888638968736</v>
+        <v>692.6706591732259</v>
       </c>
       <c r="C9" t="n">
-        <v>444.2851911378282</v>
+        <v>530.9669864141806</v>
       </c>
       <c r="D9" t="n">
-        <v>305.4465541280403</v>
+        <v>392.1283494043927</v>
       </c>
       <c r="E9" t="n">
-        <v>305.4465541280403</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7527560779147</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4889,16 +4889,16 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4907,28 +4907,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1930.734700147159</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1712.239907745469</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1483.844285193803</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1242.528416427113</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1044.611428304908</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>852.0901019544867</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.67463575990658</v>
+        <v>364.7121188117562</v>
       </c>
       <c r="C10" t="n">
-        <v>56.67463575990658</v>
+        <v>195.0961492734365</v>
       </c>
       <c r="D10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -5001,13 +5001,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>548.267487496136</v>
       </c>
       <c r="X10" t="n">
-        <v>56.67463575990658</v>
+        <v>548.267487496136</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.67463575990658</v>
+        <v>548.267487496136</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1977.203076502887</v>
+        <v>1200.397360807077</v>
       </c>
       <c r="C11" t="n">
-        <v>1977.203076502887</v>
+        <v>818.4636021398842</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.379111730111</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.593391836218</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F11" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5062,31 +5062,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.69587366073</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="X11" t="n">
-        <v>2160.665733182223</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.203076502887</v>
+        <v>1594.440900325096</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C12" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D12" t="n">
         <v>620.3170860732707</v>
@@ -5108,7 +5108,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G12" t="n">
         <v>210.0732042050868</v>
@@ -5117,28 +5117,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715379</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219087</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K13" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L13" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
         <v>374.5706761520456</v>
       </c>
       <c r="N13" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O13" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S13" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544215</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="U13" t="n">
-        <v>437.6892898185815</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="V13" t="n">
-        <v>176.9539853770041</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.9539853770041</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1002.979847848639</v>
+        <v>1200.397360807077</v>
       </c>
       <c r="C14" t="n">
-        <v>859.7908280569375</v>
+        <v>818.4636021398842</v>
       </c>
       <c r="D14" t="n">
-        <v>859.7908280569375</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E14" t="n">
-        <v>465.0051081630443</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J14" t="n">
         <v>154.9459054532635</v>
       </c>
       <c r="K14" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5299,31 +5299,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.258524637048</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T14" t="n">
-        <v>2141.588457987564</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U14" t="n">
-        <v>2141.588457987564</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V14" t="n">
-        <v>2141.588457987564</v>
+        <v>2370.012896227765</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.053527845165</v>
+        <v>2370.012896227765</v>
       </c>
       <c r="X14" t="n">
-        <v>1397.023387366658</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="Y14" t="n">
-        <v>1397.023387366658</v>
+        <v>1594.440900325096</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I15" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L15" t="n">
-        <v>802.133840764949</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.146827758681</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.695873660731</v>
@@ -5387,16 +5387,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K16" t="n">
         <v>104.1644935890949</v>
       </c>
       <c r="L16" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N16" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O16" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P16" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R16" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S16" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T16" t="n">
-        <v>504.1415403855617</v>
+        <v>492.4305776831416</v>
       </c>
       <c r="U16" t="n">
-        <v>504.1415403855617</v>
+        <v>492.4305776831416</v>
       </c>
       <c r="V16" t="n">
-        <v>504.1415403855617</v>
+        <v>231.6952732415642</v>
       </c>
       <c r="W16" t="n">
-        <v>504.1415403855617</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>272.8890762809375</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1134.612594279041</v>
+        <v>1537.096733201629</v>
       </c>
       <c r="C17" t="n">
-        <v>1134.612594279041</v>
+        <v>1155.162974534437</v>
       </c>
       <c r="D17" t="n">
-        <v>1134.612594279041</v>
+        <v>782.3390097616602</v>
       </c>
       <c r="E17" t="n">
-        <v>739.8268743851479</v>
+        <v>387.5532898677671</v>
       </c>
       <c r="F17" t="n">
-        <v>739.8268743851479</v>
+        <v>387.5532898677671</v>
       </c>
       <c r="G17" t="n">
-        <v>324.7278641230886</v>
+        <v>387.5532898677671</v>
       </c>
       <c r="H17" t="n">
         <v>65.02422883105832</v>
@@ -5542,25 +5542,25 @@
         <v>3223.701996533048</v>
       </c>
       <c r="S17" t="n">
-        <v>3223.701996533048</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T17" t="n">
-        <v>3003.742333946187</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="U17" t="n">
-        <v>3003.742333946187</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="V17" t="n">
-        <v>2666.763059842128</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="W17" t="n">
-        <v>2304.228129699729</v>
+        <v>2139.900051396097</v>
       </c>
       <c r="X17" t="n">
-        <v>1922.197989221222</v>
+        <v>2139.900051396097</v>
       </c>
       <c r="Y17" t="n">
-        <v>1528.65613379706</v>
+        <v>1931.140272719648</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>379.6152249884422</v>
       </c>
       <c r="L18" t="n">
-        <v>859.8651186220161</v>
+        <v>700.9507670185614</v>
       </c>
       <c r="M18" t="n">
-        <v>1478.430607466734</v>
+        <v>720.1538388170291</v>
       </c>
       <c r="N18" t="n">
-        <v>2126.762587209381</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O18" t="n">
-        <v>2137.450650264408</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P18" t="n">
         <v>2288.806266318732</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.02422883105832</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="C19" t="n">
-        <v>65.02422883105832</v>
+        <v>510.078826268118</v>
       </c>
       <c r="D19" t="n">
-        <v>65.02422883105832</v>
+        <v>357.0069330958806</v>
       </c>
       <c r="E19" t="n">
-        <v>65.02422883105832</v>
+        <v>357.0069330958806</v>
       </c>
       <c r="F19" t="n">
-        <v>65.02422883105832</v>
+        <v>204.5262781216578</v>
       </c>
       <c r="G19" t="n">
         <v>65.02422883105832</v>
@@ -5697,28 +5697,28 @@
         <v>966.860446348428</v>
       </c>
       <c r="R19" t="n">
-        <v>837.6081716674926</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S19" t="n">
-        <v>631.7545846378772</v>
+        <v>966.860446348428</v>
       </c>
       <c r="T19" t="n">
-        <v>631.7545846378772</v>
+        <v>966.860446348428</v>
       </c>
       <c r="U19" t="n">
-        <v>344.5889340958869</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="V19" t="n">
-        <v>248.5795975154381</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="W19" t="n">
-        <v>248.5795975154381</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="X19" t="n">
-        <v>248.5795975154381</v>
+        <v>679.6947958064377</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.5795975154381</v>
+        <v>679.6947958064377</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.553257788629</v>
+        <v>1332.819446117808</v>
       </c>
       <c r="C20" t="n">
-        <v>1175.476264902603</v>
+        <v>950.8856874506153</v>
       </c>
       <c r="D20" t="n">
-        <v>802.6523001298265</v>
+        <v>578.0617226778388</v>
       </c>
       <c r="E20" t="n">
-        <v>802.6523001298265</v>
+        <v>183.2760027839457</v>
       </c>
       <c r="F20" t="n">
-        <v>802.6523001298265</v>
+        <v>183.2760027839457</v>
       </c>
       <c r="G20" t="n">
-        <v>387.5532898677671</v>
+        <v>183.2760027839457</v>
       </c>
       <c r="H20" t="n">
         <v>65.02422883105832</v>
@@ -5785,19 +5785,19 @@
         <v>2839.414255642555</v>
       </c>
       <c r="U20" t="n">
-        <v>2584.609317459249</v>
+        <v>2839.414255642555</v>
       </c>
       <c r="V20" t="n">
-        <v>2247.63004335519</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="W20" t="n">
-        <v>1885.095113212791</v>
+        <v>2502.434981538496</v>
       </c>
       <c r="X20" t="n">
-        <v>1885.095113212791</v>
+        <v>2120.404841059989</v>
       </c>
       <c r="Y20" t="n">
-        <v>1491.553257788629</v>
+        <v>1726.862985635827</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>379.6152249884422</v>
       </c>
       <c r="L21" t="n">
-        <v>859.8651186220161</v>
+        <v>718.5019857524649</v>
       </c>
       <c r="M21" t="n">
-        <v>1227.05464372618</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N21" t="n">
-        <v>1875.386623468828</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O21" t="n">
         <v>1886.074686523854</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.02422883105832</v>
+        <v>680.7040448658272</v>
       </c>
       <c r="C22" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="D22" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="E22" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="F22" t="n">
-        <v>65.02422883105832</v>
+        <v>519.5041491933058</v>
       </c>
       <c r="G22" t="n">
-        <v>65.02422883105832</v>
+        <v>351.0351983245031</v>
       </c>
       <c r="H22" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I22" t="n">
         <v>65.02422883105832</v>
@@ -5931,31 +5931,31 @@
         <v>966.860446348428</v>
       </c>
       <c r="Q22" t="n">
-        <v>966.0712704402218</v>
+        <v>966.860446348428</v>
       </c>
       <c r="R22" t="n">
-        <v>836.8189957592865</v>
+        <v>966.860446348428</v>
       </c>
       <c r="S22" t="n">
-        <v>630.9654087296711</v>
+        <v>966.860446348428</v>
       </c>
       <c r="T22" t="n">
-        <v>630.9654087296711</v>
+        <v>966.860446348428</v>
       </c>
       <c r="U22" t="n">
-        <v>630.9654087296711</v>
+        <v>966.860446348428</v>
       </c>
       <c r="V22" t="n">
-        <v>630.9654087296711</v>
+        <v>966.860446348428</v>
       </c>
       <c r="W22" t="n">
-        <v>630.9654087296711</v>
+        <v>680.7040448658272</v>
       </c>
       <c r="X22" t="n">
-        <v>399.7129446250469</v>
+        <v>680.7040448658272</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.677785817324</v>
+        <v>680.7040448658272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1008.98180959884</v>
+        <v>1712.496809730512</v>
       </c>
       <c r="C23" t="n">
-        <v>1008.98180959884</v>
+        <v>1330.563051063319</v>
       </c>
       <c r="D23" t="n">
-        <v>1008.98180959884</v>
+        <v>1330.563051063319</v>
       </c>
       <c r="E23" t="n">
-        <v>614.196089704947</v>
+        <v>935.7773311694261</v>
       </c>
       <c r="F23" t="n">
-        <v>614.196089704947</v>
+        <v>521.6261404795964</v>
       </c>
       <c r="G23" t="n">
-        <v>199.0970794428877</v>
+        <v>521.6261404795964</v>
       </c>
       <c r="H23" t="n">
-        <v>199.0970794428877</v>
+        <v>199.0970794428876</v>
       </c>
       <c r="I23" t="n">
-        <v>65.02422883105834</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J23" t="n">
-        <v>220.6214864603407</v>
+        <v>220.6214864603401</v>
       </c>
       <c r="K23" t="n">
-        <v>586.0546590956342</v>
+        <v>586.0546590956335</v>
       </c>
       <c r="L23" t="n">
         <v>1089.376830460403</v>
@@ -6004,37 +6004,37 @@
         <v>2209.652697130949</v>
       </c>
       <c r="O23" t="n">
-        <v>2680.614868196116</v>
+        <v>2680.614868196115</v>
       </c>
       <c r="P23" t="n">
-        <v>3050.41272524426</v>
+        <v>3050.412725244259</v>
       </c>
       <c r="Q23" t="n">
-        <v>3251.211441552917</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="R23" t="n">
-        <v>3223.701996533049</v>
+        <v>3223.701996533048</v>
       </c>
       <c r="S23" t="n">
-        <v>3059.373918229417</v>
+        <v>3059.373918229416</v>
       </c>
       <c r="T23" t="n">
-        <v>2839.414255642555</v>
+        <v>2882.1123451512</v>
       </c>
       <c r="U23" t="n">
-        <v>2584.609317459249</v>
+        <v>2882.1123451512</v>
       </c>
       <c r="V23" t="n">
-        <v>2247.630043355191</v>
+        <v>2882.1123451512</v>
       </c>
       <c r="W23" t="n">
-        <v>2178.597345019528</v>
+        <v>2882.1123451512</v>
       </c>
       <c r="X23" t="n">
-        <v>1796.567204541021</v>
+        <v>2500.082204672693</v>
       </c>
       <c r="Y23" t="n">
-        <v>1403.025349116859</v>
+        <v>2106.540349248531</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.8932629421267</v>
       </c>
       <c r="I24" t="n">
-        <v>65.02422883105834</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J24" t="n">
-        <v>65.02422883105834</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K24" t="n">
-        <v>379.6152249884422</v>
+        <v>238.2520921188908</v>
       </c>
       <c r="L24" t="n">
-        <v>382.5935942164642</v>
+        <v>718.5019857524647</v>
       </c>
       <c r="M24" t="n">
-        <v>945.1977425644552</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N24" t="n">
-        <v>1593.529722307103</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.11859027128</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P24" t="n">
-        <v>2513.850170066159</v>
+        <v>2288.806266318732</v>
       </c>
       <c r="Q24" t="n">
         <v>2513.850170066159</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.02422883105834</v>
+        <v>561.2699188563254</v>
       </c>
       <c r="C25" t="n">
-        <v>65.02422883105834</v>
+        <v>391.6539493180056</v>
       </c>
       <c r="D25" t="n">
-        <v>65.02422883105834</v>
+        <v>238.5820561457683</v>
       </c>
       <c r="E25" t="n">
-        <v>65.02422883105834</v>
+        <v>238.5820561457683</v>
       </c>
       <c r="F25" t="n">
-        <v>65.02422883105834</v>
+        <v>86.10140117154546</v>
       </c>
       <c r="G25" t="n">
-        <v>65.02422883105834</v>
+        <v>86.10140117154546</v>
       </c>
       <c r="H25" t="n">
-        <v>65.02422883105834</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I25" t="n">
-        <v>65.02422883105834</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="J25" t="n">
-        <v>65.02422883105834</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="K25" t="n">
         <v>149.9606677285006</v>
@@ -6162,37 +6162,37 @@
         <v>689.541140047875</v>
       </c>
       <c r="O25" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380653</v>
       </c>
       <c r="P25" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="Q25" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="R25" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="S25" t="n">
-        <v>761.0068593188126</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="T25" t="n">
-        <v>761.0068593188126</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="U25" t="n">
-        <v>473.8412087768223</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="V25" t="n">
-        <v>213.1059043352449</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="W25" t="n">
-        <v>213.1059043352449</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="X25" t="n">
-        <v>213.1059043352449</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.02422883105834</v>
+        <v>744.8252875407052</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2127.595819992571</v>
+        <v>1719.025470965394</v>
       </c>
       <c r="C26" t="n">
-        <v>1745.662061325379</v>
+        <v>1337.091712298201</v>
       </c>
       <c r="D26" t="n">
-        <v>1745.662061325379</v>
+        <v>964.2677475254247</v>
       </c>
       <c r="E26" t="n">
-        <v>1350.876341431485</v>
+        <v>569.4820276315315</v>
       </c>
       <c r="F26" t="n">
-        <v>936.7251507416557</v>
+        <v>155.3308369417019</v>
       </c>
       <c r="G26" t="n">
-        <v>521.6261404795964</v>
+        <v>155.3308369417019</v>
       </c>
       <c r="H26" t="n">
-        <v>199.0970794428877</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="I26" t="n">
         <v>65.02422883105832</v>
@@ -6232,10 +6232,10 @@
         <v>586.0546590956335</v>
       </c>
       <c r="L26" t="n">
-        <v>1089.376830460403</v>
+        <v>1089.376830460402</v>
       </c>
       <c r="M26" t="n">
-        <v>1655.569384264475</v>
+        <v>1655.569384264474</v>
       </c>
       <c r="N26" t="n">
         <v>2209.652697130949</v>
@@ -6265,13 +6265,13 @@
         <v>2495.09915096192</v>
       </c>
       <c r="W26" t="n">
-        <v>2132.564220819521</v>
+        <v>2495.09915096192</v>
       </c>
       <c r="X26" t="n">
-        <v>2127.595819992571</v>
+        <v>2113.069010483413</v>
       </c>
       <c r="Y26" t="n">
-        <v>2127.595819992571</v>
+        <v>2113.069010483413</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J27" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K27" t="n">
-        <v>379.6152249884422</v>
+        <v>489.6601924881447</v>
       </c>
       <c r="L27" t="n">
-        <v>382.5935942164642</v>
+        <v>969.9100861217187</v>
       </c>
       <c r="M27" t="n">
-        <v>1001.159083061182</v>
+        <v>989.1131579201864</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.485818559677</v>
+        <v>1637.445137662834</v>
       </c>
       <c r="O27" t="n">
         <v>1886.074686523854</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.02422883105832</v>
+        <v>372.8695270937018</v>
       </c>
       <c r="C28" t="n">
-        <v>65.02422883105832</v>
+        <v>372.8695270937018</v>
       </c>
       <c r="D28" t="n">
-        <v>65.02422883105832</v>
+        <v>372.8695270937018</v>
       </c>
       <c r="E28" t="n">
-        <v>65.02422883105832</v>
+        <v>372.8695270937018</v>
       </c>
       <c r="F28" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="G28" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="H28" t="n">
         <v>65.02422883105832</v>
@@ -6387,7 +6387,7 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K28" t="n">
-        <v>149.9606677285005</v>
+        <v>149.9606677285006</v>
       </c>
       <c r="L28" t="n">
         <v>316.2553555288283</v>
@@ -6399,37 +6399,37 @@
         <v>689.541140047875</v>
       </c>
       <c r="O28" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380653</v>
       </c>
       <c r="P28" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="Q28" t="n">
-        <v>966.0712704402218</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="R28" t="n">
-        <v>836.8189957592865</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="S28" t="n">
-        <v>836.8189957592865</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="T28" t="n">
-        <v>836.8189957592865</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="U28" t="n">
-        <v>549.6533452172962</v>
+        <v>679.6947958064378</v>
       </c>
       <c r="V28" t="n">
-        <v>549.6533452172962</v>
+        <v>679.6947958064378</v>
       </c>
       <c r="W28" t="n">
-        <v>263.4969437346953</v>
+        <v>393.5383943238369</v>
       </c>
       <c r="X28" t="n">
-        <v>263.4969437346953</v>
+        <v>372.8695270937018</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.02422883105832</v>
+        <v>372.8695270937018</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1654.448654961531</v>
+        <v>2043.81787311681</v>
       </c>
       <c r="C29" t="n">
-        <v>1272.514896294338</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="D29" t="n">
-        <v>1272.514896294338</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E29" t="n">
-        <v>877.7291764004447</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F29" t="n">
-        <v>463.577985710615</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G29" t="n">
         <v>65.02422883105832</v>
@@ -6469,10 +6469,10 @@
         <v>586.0546590956335</v>
       </c>
       <c r="L29" t="n">
-        <v>1089.376830460403</v>
+        <v>1089.376830460402</v>
       </c>
       <c r="M29" t="n">
-        <v>1655.569384264475</v>
+        <v>1655.569384264474</v>
       </c>
       <c r="N29" t="n">
         <v>2209.652697130949</v>
@@ -6487,28 +6487,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R29" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S29" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="T29" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="U29" t="n">
-        <v>2804.56898004611</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="V29" t="n">
-        <v>2804.56898004611</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="W29" t="n">
-        <v>2442.034049903712</v>
+        <v>3213.433408537498</v>
       </c>
       <c r="X29" t="n">
-        <v>2442.034049903712</v>
+        <v>2831.403268058991</v>
       </c>
       <c r="Y29" t="n">
-        <v>2048.49219447955</v>
+        <v>2437.861412634829</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>969.9100861217187</v>
       </c>
       <c r="M30" t="n">
-        <v>989.1131579201864</v>
+        <v>1337.067474597182</v>
       </c>
       <c r="N30" t="n">
         <v>1368.485818559677</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="C31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="D31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="E31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="F31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="G31" t="n">
-        <v>65.02422883105832</v>
+        <v>351.0351983245031</v>
       </c>
       <c r="H31" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360825</v>
       </c>
       <c r="I31" t="n">
         <v>65.02422883105832</v>
@@ -6624,7 +6624,7 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K31" t="n">
-        <v>149.9606677285005</v>
+        <v>149.9606677285006</v>
       </c>
       <c r="L31" t="n">
         <v>316.2553555288283</v>
@@ -6636,37 +6636,37 @@
         <v>689.541140047875</v>
       </c>
       <c r="O31" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380653</v>
       </c>
       <c r="P31" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="Q31" t="n">
-        <v>966.0712704402218</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="R31" t="n">
-        <v>836.8189957592865</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="S31" t="n">
-        <v>630.9654087296711</v>
+        <v>631.7545846378774</v>
       </c>
       <c r="T31" t="n">
-        <v>399.7125914432883</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="U31" t="n">
-        <v>112.5469409012979</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="V31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="W31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="X31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.02422883105832</v>
+        <v>400.5017673514945</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1164.272768428853</v>
+        <v>2043.81787311681</v>
       </c>
       <c r="C32" t="n">
-        <v>782.3390097616602</v>
+        <v>1661.884114449617</v>
       </c>
       <c r="D32" t="n">
-        <v>782.3390097616602</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E32" t="n">
-        <v>387.5532898677671</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F32" t="n">
-        <v>387.5532898677671</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G32" t="n">
-        <v>387.5532898677671</v>
+        <v>65.02422883105832</v>
       </c>
       <c r="H32" t="n">
         <v>65.02422883105832</v>
@@ -6700,10 +6700,10 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603403</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0546590956335</v>
+        <v>586.0546590956337</v>
       </c>
       <c r="L32" t="n">
         <v>1089.376830460403</v>
@@ -6724,28 +6724,28 @@
         <v>3251.211441552916</v>
       </c>
       <c r="R32" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="S32" t="n">
-        <v>3059.373918229416</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="T32" t="n">
-        <v>2839.414255642555</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="U32" t="n">
-        <v>2584.609317459249</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="V32" t="n">
-        <v>2247.63004335519</v>
+        <v>3251.211441552916</v>
       </c>
       <c r="W32" t="n">
-        <v>1885.095113212791</v>
+        <v>3213.433408537498</v>
       </c>
       <c r="X32" t="n">
-        <v>1503.064972734285</v>
+        <v>2831.403268058991</v>
       </c>
       <c r="Y32" t="n">
-        <v>1503.064972734285</v>
+        <v>2437.861412634829</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>65.02422883105832</v>
       </c>
       <c r="J33" t="n">
-        <v>65.02422883105832</v>
+        <v>175.0691963307609</v>
       </c>
       <c r="K33" t="n">
-        <v>379.6152249884422</v>
+        <v>489.6601924881447</v>
       </c>
       <c r="L33" t="n">
-        <v>859.8651186220161</v>
+        <v>969.9100861217187</v>
       </c>
       <c r="M33" t="n">
         <v>1337.067474597182</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="C34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="D34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="E34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="F34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="G34" t="n">
-        <v>65.02422883105832</v>
+        <v>220.3888721194789</v>
       </c>
       <c r="H34" t="n">
         <v>65.02422883105832</v>
@@ -6861,7 +6861,7 @@
         <v>65.02422883105832</v>
       </c>
       <c r="K34" t="n">
-        <v>149.9606677285005</v>
+        <v>149.9606677285006</v>
       </c>
       <c r="L34" t="n">
         <v>316.2553555288283</v>
@@ -6873,37 +6873,37 @@
         <v>689.541140047875</v>
       </c>
       <c r="O34" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380653</v>
       </c>
       <c r="P34" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="Q34" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="R34" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="S34" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484281</v>
       </c>
       <c r="T34" t="n">
-        <v>796.4805524990059</v>
+        <v>735.6076290620452</v>
       </c>
       <c r="U34" t="n">
-        <v>509.3149019570155</v>
+        <v>735.6076290620452</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5795975154381</v>
+        <v>474.8723246204679</v>
       </c>
       <c r="W34" t="n">
-        <v>248.5795975154381</v>
+        <v>442.4240309272019</v>
       </c>
       <c r="X34" t="n">
-        <v>248.5795975154381</v>
+        <v>442.4240309272019</v>
       </c>
       <c r="Y34" t="n">
-        <v>248.5795975154381</v>
+        <v>220.3888721194789</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1628.71886285475</v>
+        <v>1917.267827828597</v>
       </c>
       <c r="C35" t="n">
-        <v>1246.785104187558</v>
+        <v>1535.334069161404</v>
       </c>
       <c r="D35" t="n">
-        <v>873.9611394147812</v>
+        <v>1289.06014967684</v>
       </c>
       <c r="E35" t="n">
-        <v>479.175419520888</v>
+        <v>894.2744297829473</v>
       </c>
       <c r="F35" t="n">
-        <v>65.02422883105832</v>
+        <v>480.1232390931177</v>
       </c>
       <c r="G35" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="H35" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="I35" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J35" t="n">
         <v>220.6214864603401</v>
@@ -6958,31 +6958,31 @@
         <v>3050.412725244259</v>
       </c>
       <c r="Q35" t="n">
-        <v>3251.211441552916</v>
+        <v>3251.211441552917</v>
       </c>
       <c r="R35" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552917</v>
       </c>
       <c r="S35" t="n">
-        <v>3223.701996533048</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="T35" t="n">
-        <v>3008.088470084296</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="U35" t="n">
-        <v>2753.28353190099</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="V35" t="n">
-        <v>2416.304257796931</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="W35" t="n">
-        <v>2416.304257796931</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="X35" t="n">
-        <v>2416.304257796931</v>
+        <v>2704.853222770778</v>
       </c>
       <c r="Y35" t="n">
-        <v>2022.762402372769</v>
+        <v>2311.311367346616</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>114.8932629421267</v>
       </c>
       <c r="I36" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J36" t="n">
         <v>175.0691963307609</v>
@@ -7022,16 +7022,16 @@
         <v>489.6601924881447</v>
       </c>
       <c r="L36" t="n">
-        <v>492.6385617161667</v>
+        <v>969.9100861217187</v>
       </c>
       <c r="M36" t="n">
-        <v>1111.204050560884</v>
+        <v>1588.475574966436</v>
       </c>
       <c r="N36" t="n">
-        <v>1759.536030303532</v>
+        <v>1875.386623468828</v>
       </c>
       <c r="O36" t="n">
-        <v>2277.12489826771</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P36" t="n">
         <v>2288.806266318732</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.02422883105832</v>
+        <v>606.3557075628686</v>
       </c>
       <c r="C37" t="n">
-        <v>65.02422883105832</v>
+        <v>606.3557075628686</v>
       </c>
       <c r="D37" t="n">
-        <v>65.02422883105832</v>
+        <v>606.3557075628686</v>
       </c>
       <c r="E37" t="n">
-        <v>65.02422883105832</v>
+        <v>454.3466933241874</v>
       </c>
       <c r="F37" t="n">
-        <v>65.02422883105832</v>
+        <v>454.3466933241874</v>
       </c>
       <c r="G37" t="n">
-        <v>65.02422883105832</v>
+        <v>351.0351983245031</v>
       </c>
       <c r="H37" t="n">
-        <v>65.02422883105832</v>
+        <v>195.6705550360824</v>
       </c>
       <c r="I37" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J37" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="K37" t="n">
-        <v>149.9606677285005</v>
+        <v>149.9606677285006</v>
       </c>
       <c r="L37" t="n">
-        <v>316.2553555288283</v>
+        <v>316.2553555288284</v>
       </c>
       <c r="M37" t="n">
         <v>503.5072346319943</v>
       </c>
       <c r="N37" t="n">
-        <v>689.541140047875</v>
+        <v>689.5411400478752</v>
       </c>
       <c r="O37" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380654</v>
       </c>
       <c r="P37" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484282</v>
       </c>
       <c r="Q37" t="n">
-        <v>966.0712704402218</v>
+        <v>966.8604463484282</v>
       </c>
       <c r="R37" t="n">
-        <v>966.0712704402218</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="S37" t="n">
-        <v>760.2176834106065</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="T37" t="n">
-        <v>528.9648661242236</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="U37" t="n">
-        <v>241.7992155822333</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="V37" t="n">
-        <v>65.02422883105832</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="W37" t="n">
-        <v>65.02422883105832</v>
+        <v>837.6081716674928</v>
       </c>
       <c r="X37" t="n">
-        <v>65.02422883105832</v>
+        <v>606.3557075628686</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.02422883105832</v>
+        <v>606.3557075628686</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1629.66668242698</v>
+        <v>2127.595819992571</v>
       </c>
       <c r="C38" t="n">
-        <v>1247.732923759787</v>
+        <v>1745.662061325379</v>
       </c>
       <c r="D38" t="n">
-        <v>874.9089589870108</v>
+        <v>1745.662061325379</v>
       </c>
       <c r="E38" t="n">
-        <v>480.1232390931177</v>
+        <v>1350.876341431485</v>
       </c>
       <c r="F38" t="n">
-        <v>480.1232390931177</v>
+        <v>936.7251507416557</v>
       </c>
       <c r="G38" t="n">
-        <v>65.02422883105832</v>
+        <v>521.6261404795964</v>
       </c>
       <c r="H38" t="n">
-        <v>65.02422883105832</v>
+        <v>199.0970794428876</v>
       </c>
       <c r="I38" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J38" t="n">
-        <v>220.6214864603401</v>
+        <v>220.6214864603402</v>
       </c>
       <c r="K38" t="n">
-        <v>586.0546590956335</v>
+        <v>586.0546590956336</v>
       </c>
       <c r="L38" t="n">
         <v>1089.376830460403</v>
@@ -7195,31 +7195,31 @@
         <v>3050.412725244259</v>
       </c>
       <c r="Q38" t="n">
-        <v>3251.211441552916</v>
+        <v>3251.211441552917</v>
       </c>
       <c r="R38" t="n">
-        <v>3223.701996533048</v>
+        <v>3251.211441552917</v>
       </c>
       <c r="S38" t="n">
-        <v>3059.373918229416</v>
+        <v>3086.883363249285</v>
       </c>
       <c r="T38" t="n">
-        <v>2839.414255642555</v>
+        <v>2866.923700662423</v>
       </c>
       <c r="U38" t="n">
-        <v>2722.7227420976</v>
+        <v>2866.923700662423</v>
       </c>
       <c r="V38" t="n">
-        <v>2385.743467993541</v>
+        <v>2866.923700662423</v>
       </c>
       <c r="W38" t="n">
-        <v>2023.208537851142</v>
+        <v>2504.388770520024</v>
       </c>
       <c r="X38" t="n">
-        <v>2023.208537851142</v>
+        <v>2127.595819992571</v>
       </c>
       <c r="Y38" t="n">
-        <v>1629.66668242698</v>
+        <v>2127.595819992571</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>114.8932629421267</v>
       </c>
       <c r="I39" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J39" t="n">
         <v>175.0691963307609</v>
@@ -7262,13 +7262,13 @@
         <v>969.9100861217187</v>
       </c>
       <c r="M39" t="n">
-        <v>1588.475574966436</v>
+        <v>989.1131579201864</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.217398354555</v>
+        <v>1368.485818559677</v>
       </c>
       <c r="O39" t="n">
-        <v>2288.806266318732</v>
+        <v>1886.074686523854</v>
       </c>
       <c r="P39" t="n">
         <v>2288.806266318732</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.02422883105832</v>
+        <v>307.7192364064657</v>
       </c>
       <c r="C40" t="n">
-        <v>65.02422883105832</v>
+        <v>307.7192364064657</v>
       </c>
       <c r="D40" t="n">
-        <v>65.02422883105832</v>
+        <v>307.7192364064657</v>
       </c>
       <c r="E40" t="n">
-        <v>65.02422883105832</v>
+        <v>155.7102221677845</v>
       </c>
       <c r="F40" t="n">
-        <v>65.02422883105832</v>
+        <v>155.7102221677845</v>
       </c>
       <c r="G40" t="n">
-        <v>65.02422883105832</v>
+        <v>155.7102221677845</v>
       </c>
       <c r="H40" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="I40" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="J40" t="n">
-        <v>65.02422883105832</v>
+        <v>65.02422883105834</v>
       </c>
       <c r="K40" t="n">
-        <v>149.9606677285005</v>
+        <v>149.9606677285006</v>
       </c>
       <c r="L40" t="n">
-        <v>316.2553555288283</v>
+        <v>316.2553555288284</v>
       </c>
       <c r="M40" t="n">
         <v>503.5072346319943</v>
       </c>
       <c r="N40" t="n">
-        <v>689.541140047875</v>
+        <v>689.5411400478752</v>
       </c>
       <c r="O40" t="n">
-        <v>850.4550088380652</v>
+        <v>850.4550088380654</v>
       </c>
       <c r="P40" t="n">
-        <v>966.860446348428</v>
+        <v>966.8604463484282</v>
       </c>
       <c r="Q40" t="n">
-        <v>966.0712704402218</v>
+        <v>966.8604463484282</v>
       </c>
       <c r="R40" t="n">
-        <v>836.8189957592865</v>
+        <v>966.8604463484282</v>
       </c>
       <c r="S40" t="n">
-        <v>630.9654087296711</v>
+        <v>761.0068593188129</v>
       </c>
       <c r="T40" t="n">
-        <v>399.7125914432883</v>
+        <v>761.0068593188129</v>
       </c>
       <c r="U40" t="n">
-        <v>351.1806303136592</v>
+        <v>761.0068593188129</v>
       </c>
       <c r="V40" t="n">
-        <v>351.1806303136592</v>
+        <v>761.0068593188129</v>
       </c>
       <c r="W40" t="n">
-        <v>65.02422883105832</v>
+        <v>761.0068593188129</v>
       </c>
       <c r="X40" t="n">
-        <v>65.02422883105832</v>
+        <v>529.7543952141887</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.02422883105832</v>
+        <v>307.7192364064657</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>922.554839383812</v>
+        <v>1376.745256908189</v>
       </c>
       <c r="C41" t="n">
-        <v>922.554839383812</v>
+        <v>994.8114982409963</v>
       </c>
       <c r="D41" t="n">
-        <v>922.554839383812</v>
+        <v>994.8114982409963</v>
       </c>
       <c r="E41" t="n">
-        <v>922.554839383812</v>
+        <v>600.0257783471033</v>
       </c>
       <c r="F41" t="n">
-        <v>922.554839383812</v>
+        <v>600.0257783471033</v>
       </c>
       <c r="G41" t="n">
-        <v>507.4558291217527</v>
+        <v>184.9267680850439</v>
       </c>
       <c r="H41" t="n">
         <v>184.9267680850439</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J41" t="n">
         <v>206.4511751024964</v>
       </c>
       <c r="K41" t="n">
-        <v>571.8843477377898</v>
+        <v>571.8843477377899</v>
       </c>
       <c r="L41" t="n">
         <v>1075.206519102559</v>
       </c>
       <c r="M41" t="n">
-        <v>1147.852532680945</v>
+        <v>1641.399072906631</v>
       </c>
       <c r="N41" t="n">
-        <v>1701.93584554742</v>
+        <v>1701.935845547421</v>
       </c>
       <c r="O41" t="n">
-        <v>2172.898016612586</v>
+        <v>2172.898016612587</v>
       </c>
       <c r="P41" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R41" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2542.69587366073</v>
+        <v>2489.798211008774</v>
       </c>
       <c r="T41" t="n">
-        <v>2322.736211073869</v>
+        <v>2489.798211008774</v>
       </c>
       <c r="U41" t="n">
-        <v>2322.736211073869</v>
+        <v>2489.798211008774</v>
       </c>
       <c r="V41" t="n">
-        <v>2322.736211073869</v>
+        <v>2152.818936904715</v>
       </c>
       <c r="W41" t="n">
-        <v>1960.20128093147</v>
+        <v>2152.818936904715</v>
       </c>
       <c r="X41" t="n">
-        <v>1578.171140452963</v>
+        <v>1770.788796426208</v>
       </c>
       <c r="Y41" t="n">
-        <v>1316.598378901831</v>
+        <v>1770.788796426208</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>948.9385881729747</v>
+        <v>905.9225732205592</v>
       </c>
       <c r="C42" t="n">
-        <v>787.2349154139295</v>
+        <v>744.218900461514</v>
       </c>
       <c r="D42" t="n">
-        <v>648.3962784041415</v>
+        <v>605.380263451726</v>
       </c>
       <c r="E42" t="n">
-        <v>501.3682684610127</v>
+        <v>458.3522535085973</v>
       </c>
       <c r="F42" t="n">
-        <v>366.6744704108871</v>
+        <v>323.6584554584716</v>
       </c>
       <c r="G42" t="n">
-        <v>238.4836801505211</v>
+        <v>195.4676651981056</v>
       </c>
       <c r="H42" t="n">
-        <v>143.7389665366985</v>
+        <v>100.722951584283</v>
       </c>
       <c r="I42" t="n">
-        <v>93.86993242563007</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J42" t="n">
-        <v>203.9148999253326</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K42" t="n">
-        <v>518.5058960827164</v>
+        <v>365.4449136305984</v>
       </c>
       <c r="L42" t="n">
-        <v>521.4842653107385</v>
+        <v>845.6948072641724</v>
       </c>
       <c r="M42" t="n">
-        <v>993.0581971706439</v>
+        <v>1464.26029610889</v>
       </c>
       <c r="N42" t="n">
-        <v>1622.375425901675</v>
+        <v>1495.678640071385</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.964293865852</v>
+        <v>1871.904375166011</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.69587366073</v>
+        <v>2274.635954960889</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.69587366073</v>
+        <v>2499.679858708315</v>
       </c>
       <c r="R42" t="n">
-        <v>2516.296774688315</v>
+        <v>2473.280759735899</v>
       </c>
       <c r="S42" t="n">
-        <v>2373.48500984465</v>
+        <v>2330.468994892234</v>
       </c>
       <c r="T42" t="n">
-        <v>2186.967253507674</v>
+        <v>2143.951238555259</v>
       </c>
       <c r="U42" t="n">
-        <v>1968.507836745218</v>
+        <v>1925.491821792803</v>
       </c>
       <c r="V42" t="n">
-        <v>1740.112214193552</v>
+        <v>1697.096199241137</v>
       </c>
       <c r="W42" t="n">
-        <v>1498.796345426862</v>
+        <v>1455.780330474447</v>
       </c>
       <c r="X42" t="n">
-        <v>1300.879357304657</v>
+        <v>1257.863342352241</v>
       </c>
       <c r="Y42" t="n">
-        <v>1108.358030954236</v>
+        <v>1065.34201600182</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2075.317806281331</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="C43" t="n">
-        <v>2075.317806281331</v>
+        <v>216.7154864553311</v>
       </c>
       <c r="D43" t="n">
-        <v>2075.317806281331</v>
+        <v>216.7154864553311</v>
       </c>
       <c r="E43" t="n">
-        <v>2075.317806281331</v>
+        <v>216.7154864553311</v>
       </c>
       <c r="F43" t="n">
-        <v>1922.837151307108</v>
+        <v>64.23483148110822</v>
       </c>
       <c r="G43" t="n">
-        <v>1754.368200438306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J43" t="n">
-        <v>1640.859656143361</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K43" t="n">
-        <v>1725.796095040803</v>
+        <v>135.7903563706569</v>
       </c>
       <c r="L43" t="n">
-        <v>1892.090782841131</v>
+        <v>302.0850441709846</v>
       </c>
       <c r="M43" t="n">
-        <v>2079.342661944297</v>
+        <v>489.3369232741506</v>
       </c>
       <c r="N43" t="n">
-        <v>2265.376567360177</v>
+        <v>675.3708286900314</v>
       </c>
       <c r="O43" t="n">
-        <v>2426.290436150367</v>
+        <v>836.2846974802217</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.69587366073</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="Q43" t="n">
-        <v>2541.906697752524</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="R43" t="n">
-        <v>2541.906697752524</v>
+        <v>823.4378603096491</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.053110722909</v>
+        <v>617.5842732800337</v>
       </c>
       <c r="T43" t="n">
-        <v>2336.053110722909</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="U43" t="n">
-        <v>2336.053110722909</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="V43" t="n">
-        <v>2075.317806281331</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="W43" t="n">
-        <v>2075.317806281331</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="X43" t="n">
-        <v>2075.317806281331</v>
+        <v>386.3314559936508</v>
       </c>
       <c r="Y43" t="n">
-        <v>2075.317806281331</v>
+        <v>386.3314559936508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.2069432826997</v>
+        <v>481.7286106700856</v>
       </c>
       <c r="C44" t="n">
-        <v>746.2069432826997</v>
+        <v>481.7286106700856</v>
       </c>
       <c r="D44" t="n">
-        <v>373.3829785099234</v>
+        <v>108.9046458973092</v>
       </c>
       <c r="E44" t="n">
-        <v>373.3829785099234</v>
+        <v>108.9046458973092</v>
       </c>
       <c r="F44" t="n">
-        <v>373.3829785099234</v>
+        <v>108.9046458973092</v>
       </c>
       <c r="G44" t="n">
-        <v>373.3829785099234</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>206.4511751024964</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K44" t="n">
-        <v>571.8843477377898</v>
+        <v>78.33780751210514</v>
       </c>
       <c r="L44" t="n">
-        <v>571.8843477377898</v>
+        <v>581.6599788768742</v>
       </c>
       <c r="M44" t="n">
-        <v>947.0538163722885</v>
+        <v>1147.852532680946</v>
       </c>
       <c r="N44" t="n">
-        <v>1501.137129238763</v>
+        <v>1701.935845547421</v>
       </c>
       <c r="O44" t="n">
-        <v>1972.099300303929</v>
+        <v>2172.898016612587</v>
       </c>
       <c r="P44" t="n">
-        <v>2341.897157352073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.69587366073</v>
+        <v>2515.186428640863</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.858350337231</v>
       </c>
       <c r="T44" t="n">
-        <v>2542.69587366073</v>
+        <v>2350.858350337231</v>
       </c>
       <c r="U44" t="n">
-        <v>2287.890935477425</v>
+        <v>2350.858350337231</v>
       </c>
       <c r="V44" t="n">
-        <v>2278.357408845787</v>
+        <v>2013.879076233172</v>
       </c>
       <c r="W44" t="n">
-        <v>1915.822478703388</v>
+        <v>1651.344146090773</v>
       </c>
       <c r="X44" t="n">
-        <v>1533.792338224881</v>
+        <v>1269.314005612267</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.250482800719</v>
+        <v>875.7721501881048</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>100.722951584283</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321461</v>
+        <v>160.8988849729172</v>
       </c>
       <c r="K45" t="n">
-        <v>365.4449136305984</v>
+        <v>475.489881130301</v>
       </c>
       <c r="L45" t="n">
-        <v>368.4232828586204</v>
+        <v>955.7397747638749</v>
       </c>
       <c r="M45" t="n">
-        <v>986.988771703338</v>
+        <v>1322.897163239339</v>
       </c>
       <c r="N45" t="n">
         <v>1354.315507201833</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>351.1162132165584</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="C46" t="n">
-        <v>181.5002436782387</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="D46" t="n">
-        <v>181.5002436782387</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="E46" t="n">
-        <v>181.5002436782387</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="F46" t="n">
-        <v>181.5002436782387</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>181.5002436782387</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>181.5002436782387</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J46" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
-        <v>135.7903563706568</v>
+        <v>135.7903563706569</v>
       </c>
       <c r="L46" t="n">
         <v>302.0850441709846</v>
       </c>
       <c r="M46" t="n">
-        <v>489.3369232741505</v>
+        <v>489.3369232741506</v>
       </c>
       <c r="N46" t="n">
-        <v>675.3708286900313</v>
+        <v>675.3708286900314</v>
       </c>
       <c r="O46" t="n">
-        <v>836.2846974802214</v>
+        <v>836.2846974802217</v>
       </c>
       <c r="P46" t="n">
-        <v>952.6901349905843</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="Q46" t="n">
-        <v>951.9009590823781</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="R46" t="n">
-        <v>822.6486844014428</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="S46" t="n">
-        <v>616.7950973718274</v>
+        <v>952.6901349905845</v>
       </c>
       <c r="T46" t="n">
-        <v>616.7950973718274</v>
+        <v>721.4373177042016</v>
       </c>
       <c r="U46" t="n">
-        <v>616.7950973718274</v>
+        <v>721.4373177042016</v>
       </c>
       <c r="V46" t="n">
-        <v>616.7950973718274</v>
+        <v>460.7020132626242</v>
       </c>
       <c r="W46" t="n">
-        <v>616.7950973718274</v>
+        <v>460.7020132626242</v>
       </c>
       <c r="X46" t="n">
-        <v>616.7950973718274</v>
+        <v>460.7020132626242</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.7599385641045</v>
+        <v>460.7020132626242</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8060,13 +8060,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>387.98835840707</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8297,16 +8297,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8315,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8537,7 +8537,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>253.0836423644577</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8549,7 +8549,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8768,10 +8768,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339989</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>96.4165171624843</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8783,13 +8783,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>450.0846164268627</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8932,7 +8932,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155858</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9014,7 +9014,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>277.8578053120012</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>352.0652005990325</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9248,19 +9248,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>321.5729018203002</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>160.0864843424701</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9485,16 +9485,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>339.3014055919199</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5014679855516</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9716,19 +9716,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>89.85723198579268</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>548.8899763126499</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,22 +9953,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>339.3014055919199</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>240.3449351575693</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10199,10 +10199,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>351.4690067444404</v>
       </c>
       <c r="N30" t="n">
-        <v>351.4690067444404</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10436,7 +10436,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>462.6255395724228</v>
+        <v>351.4690067444404</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>258.0734389291886</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.00138534923606</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10828,7 +10828,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155854</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10910,16 +10910,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>152.8519994198226</v>
+        <v>351.4690067444404</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>7.202023681536389</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11068,10 +11068,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>85.83573472685858</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>70.01914292175618</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11080,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.18250168751544</v>
+        <v>73.1825016875154</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11138,28 +11138,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>52.76181311454907</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>456.940262688321</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>603.9382674429661</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>369.229971757171</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.78339956425415</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>62.65665262341125</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>80.02612462897585</v>
       </c>
       <c r="L44" t="n">
-        <v>34.55334521379871</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>391.4149822582849</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>73.1825016875154</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,19 +11375,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>52.76181311454909</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>351.4690067444403</v>
       </c>
       <c r="N45" t="n">
-        <v>339.3014055919199</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>52.13573917386661</v>
       </c>
       <c r="T11" t="n">
         <v>220.4433659829895</v>
@@ -23320,13 +23320,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.9784067573776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,13 +23433,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>31.41657117931929</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
         <v>140.32293915197</v>
@@ -23469,16 +23469,16 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>130.4429356974289</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>236.3572914867361</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>411.5609956070679</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>162.6533337043819</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23706,22 +23706,22 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>35.39926125678087</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>104.2618952571088</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H17" t="n">
-        <v>62.19717148723174</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>132.732122105711</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>182.9342559802365</v>
       </c>
     </row>
     <row r="18">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7842613601147</v>
+        <v>28.6772325624213</v>
       </c>
       <c r="H19" t="n">
         <v>153.8109968555364</v>
@@ -23937,10 +23937,10 @@
         <v>0.7812841491240619</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T19" t="n">
         <v>228.9402891135191</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.0787081825173</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>65.19819812335464</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>202.2345142129832</v>
       </c>
       <c r="I20" t="n">
         <v>132.732122105711</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.192793581133</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>8.331913127140325</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24141,13 +24141,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7842613601147</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>27.90397835000484</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.7812841491240619</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T22" t="n">
         <v>228.9402891135191</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H23" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>42.27110861355877</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>290.5672094886689</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.7842613601147</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8109968555364</v>
+        <v>132.9445962384541</v>
       </c>
       <c r="I25" t="n">
         <v>129.3398629429739</v>
@@ -24414,16 +24414,16 @@
         <v>127.959751934126</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T25" t="n">
         <v>228.9402891135191</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
@@ -24432,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.21394847050095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9480201594387</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>229.9002283968046</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132.732122105711</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.23435056966954</v>
+        <v>27.23435056966953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>373.2911222550414</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24612,13 +24612,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.7842613601147</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>129.3398629429739</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.7812841491240619</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S28" t="n">
         <v>203.7950511593192</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>208.4777609057442</v>
       </c>
       <c r="Y28" t="n">
-        <v>23.32681946504508</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>16.37980084867763</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>319.3037704263417</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>27.23435056966953</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T29" t="n">
         <v>217.7600659609929</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>321.5093281557104</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7842613601147</v>
+        <v>117.8123580233932</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>27.90397835000484</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.7812841491240619</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V31" t="n">
-        <v>211.0804664476244</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.69882186046169</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I32" t="n">
         <v>132.732122105711</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>27.23435056966953</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>162.6847975205958</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>321.5093281557104</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25092,7 +25092,7 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>129.3398629429739</v>
@@ -25128,22 +25128,22 @@
         <v>203.7950511593192</v>
       </c>
       <c r="T34" t="n">
-        <v>60.26419420259114</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>251.1710267114416</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>125.2845448353306</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9480201594387</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>319.3037704263417</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.23435056966951</v>
       </c>
       <c r="S35" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.30267477672794</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,22 +25320,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7842613601147</v>
+        <v>64.50588131042721</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8109968555364</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>129.3398629429739</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>27.90397835000484</v>
+        <v>27.90397835000483</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.7812841491240476</v>
       </c>
       <c r="R37" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V37" t="n">
-        <v>83.12071451349843</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>319.3037704263417</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>132.732122105711</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.23435056966951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>136.7322903919674</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>5.184818051543289</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25566,13 +25566,13 @@
         <v>166.7842613601147</v>
       </c>
       <c r="H40" t="n">
-        <v>153.8109968555364</v>
+        <v>64.03186345217746</v>
       </c>
       <c r="I40" t="n">
         <v>129.3398629429739</v>
       </c>
       <c r="J40" t="n">
-        <v>27.90397835000484</v>
+        <v>27.90397835000483</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.7812841491240476</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.9402891135191</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2473525182376</v>
+        <v>284.2939940365704</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>27.23435056966954</v>
+        <v>27.23435056966951</v>
       </c>
       <c r="S41" t="n">
-        <v>162.6847975205958</v>
+        <v>110.3161114951579</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7600659609929</v>
       </c>
       <c r="U41" t="n">
         <v>252.2568888014727</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.6494029342998</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25800,16 +25800,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>153.5371564923</v>
       </c>
       <c r="H43" t="n">
-        <v>41.43753800354078</v>
+        <v>153.8109968555364</v>
       </c>
       <c r="I43" t="n">
         <v>129.3398629429739</v>
       </c>
       <c r="J43" t="n">
-        <v>27.90397835000484</v>
+        <v>27.90397835000483</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.7812841491240476</v>
       </c>
       <c r="R43" t="n">
-        <v>127.959751934126</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25879,10 +25879,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9480201594387</v>
+        <v>353.4777990195851</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>319.3037704263417</v>
       </c>
       <c r="I44" t="n">
         <v>132.732122105711</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.23435056966954</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>162.6847975205958</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7600659609929</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2568888014727</v>
       </c>
       <c r="V44" t="n">
-        <v>324.1712899976966</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.5125269034655</v>
+        <v>77.41497268679552</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.7842613601147</v>
@@ -26043,10 +26043,10 @@
         <v>153.8109968555364</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>129.3398629429739</v>
       </c>
       <c r="J46" t="n">
-        <v>27.90397835000484</v>
+        <v>27.90397835000483</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.7812841491240476</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>127.959751934126</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>203.7950511593192</v>
       </c>
       <c r="T46" t="n">
-        <v>228.9402891135191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>284.2939940365704</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>903621.5821966017</v>
+        <v>903621.5821966016</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>903621.5821966017</v>
+        <v>903621.5821966016</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>622117.6980586904</v>
+        <v>622117.6980586906</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>691868.1881696678</v>
+        <v>691868.188169668</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691868.1881696677</v>
+        <v>691868.188169668</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691868.1881696677</v>
+        <v>691868.1881696678</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691868.1881696678</v>
+        <v>691868.188169668</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691868.1881696677</v>
+        <v>691868.188169668</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623277.287093411</v>
+        <v>623277.2870934111</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623277.287093411</v>
+        <v>623277.2870934111</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>518146.2408335729</v>
       </c>
       <c r="C2" t="n">
-        <v>518146.2408335726</v>
+        <v>518146.2408335728</v>
       </c>
       <c r="D2" t="n">
-        <v>518146.2408335729</v>
+        <v>518146.2408335725</v>
       </c>
       <c r="E2" t="n">
+        <v>340821.0813116257</v>
+      </c>
+      <c r="F2" t="n">
         <v>340821.0813116256</v>
-      </c>
-      <c r="F2" t="n">
-        <v>340821.0813116257</v>
       </c>
       <c r="G2" t="n">
         <v>387178.2173944206</v>
       </c>
       <c r="H2" t="n">
+        <v>387178.2173944207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>387178.2173944208</v>
+      </c>
+      <c r="J2" t="n">
         <v>387178.2173944206</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>387178.2173944207</v>
+      </c>
+      <c r="L2" t="n">
         <v>387178.2173944206</v>
-      </c>
-      <c r="J2" t="n">
-        <v>387178.2173944208</v>
-      </c>
-      <c r="K2" t="n">
-        <v>387178.2173944206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>387178.2173944207</v>
       </c>
       <c r="M2" t="n">
         <v>387178.2173944208</v>
       </c>
       <c r="N2" t="n">
-        <v>387178.2173944207</v>
+        <v>387178.2173944208</v>
       </c>
       <c r="O2" t="n">
-        <v>350244.1184671663</v>
+        <v>350244.1184671665</v>
       </c>
       <c r="P2" t="n">
-        <v>350244.1184671665</v>
+        <v>350244.1184671666</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493011</v>
+        <v>109285.8666493012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>167097.7572668311</v>
+        <v>167097.757266831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>264201.4764986496</v>
       </c>
       <c r="E4" t="n">
-        <v>79813.69145146926</v>
+        <v>79813.69145146925</v>
       </c>
       <c r="F4" t="n">
-        <v>79813.69145146926</v>
+        <v>79813.69145146925</v>
       </c>
       <c r="G4" t="n">
         <v>75825.41318147432</v>
@@ -26438,7 +26438,7 @@
         <v>75825.4131814743</v>
       </c>
       <c r="I4" t="n">
-        <v>75825.41318147432</v>
+        <v>75825.4131814743</v>
       </c>
       <c r="J4" t="n">
         <v>75825.41318147432</v>
@@ -26456,7 +26456,7 @@
         <v>75825.41318147432</v>
       </c>
       <c r="O4" t="n">
-        <v>65971.7422247535</v>
+        <v>65971.74222475351</v>
       </c>
       <c r="P4" t="n">
         <v>65971.74222475351</v>
@@ -26478,10 +26478,10 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="F5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
         <v>54813.6517028969</v>
@@ -26508,10 +26508,10 @@
         <v>54813.6517028969</v>
       </c>
       <c r="O5" t="n">
-        <v>44044.21507093567</v>
+        <v>44044.21507093569</v>
       </c>
       <c r="P5" t="n">
-        <v>44044.21507093567</v>
+        <v>44044.21507093569</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>12337.54498048453</v>
       </c>
       <c r="C6" t="n">
-        <v>188378.7296980117</v>
+        <v>188378.7296980118</v>
       </c>
       <c r="D6" t="n">
-        <v>188378.7296980118</v>
+        <v>188378.7296980115</v>
       </c>
       <c r="E6" t="n">
-        <v>111001.3207485506</v>
+        <v>104433.7222477377</v>
       </c>
       <c r="F6" t="n">
-        <v>220287.1873978518</v>
+        <v>213719.5888970388</v>
       </c>
       <c r="G6" t="n">
-        <v>89441.39524321823</v>
+        <v>84590.72770843498</v>
       </c>
       <c r="H6" t="n">
-        <v>256539.1525100494</v>
+        <v>251688.4849752661</v>
       </c>
       <c r="I6" t="n">
-        <v>256539.1525100494</v>
+        <v>251688.4849752662</v>
       </c>
       <c r="J6" t="n">
-        <v>119096.7217182724</v>
+        <v>114246.0541834889</v>
       </c>
       <c r="K6" t="n">
-        <v>256539.1525100494</v>
+        <v>251688.4849752661</v>
       </c>
       <c r="L6" t="n">
-        <v>256539.1525100495</v>
+        <v>251688.484975266</v>
       </c>
       <c r="M6" t="n">
-        <v>229034.315853153</v>
+        <v>224183.6483183696</v>
       </c>
       <c r="N6" t="n">
-        <v>256539.1525100495</v>
+        <v>251688.4849752662</v>
       </c>
       <c r="O6" t="n">
-        <v>240228.1611714771</v>
+        <v>234009.5640467956</v>
       </c>
       <c r="P6" t="n">
-        <v>240228.1611714773</v>
+        <v>234009.5640467957</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="G3" t="n">
         <v>247.487972077641</v>
@@ -26770,16 +26770,16 @@
         <v>247.487972077641</v>
       </c>
       <c r="M3" t="n">
-        <v>247.487972077641</v>
+        <v>247.4879720776411</v>
       </c>
       <c r="N3" t="n">
-        <v>247.487972077641</v>
+        <v>247.4879720776411</v>
       </c>
       <c r="O3" t="n">
-        <v>247.487972077641</v>
+        <v>247.4879720776411</v>
       </c>
       <c r="P3" t="n">
-        <v>247.487972077641</v>
+        <v>247.4879720776411</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
         <v>812.8028603882291</v>
@@ -26810,7 +26810,7 @@
         <v>812.8028603882291</v>
       </c>
       <c r="I4" t="n">
-        <v>812.8028603882292</v>
+        <v>812.8028603882291</v>
       </c>
       <c r="J4" t="n">
         <v>812.8028603882291</v>
@@ -26822,16 +26822,16 @@
         <v>812.8028603882291</v>
       </c>
       <c r="M4" t="n">
-        <v>812.8028603882291</v>
+        <v>812.8028603882292</v>
       </c>
       <c r="N4" t="n">
-        <v>812.8028603882291</v>
+        <v>812.8028603882292</v>
       </c>
       <c r="O4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151828</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152.4776425977524</v>
+        <v>152.4776425977522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>177.1288919730465</v>
+        <v>177.1288919730464</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>177.1288919730465</v>
+        <v>177.1288919730464</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27390,16 +27390,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.6039785144797</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>121.5097667301628</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>32.8130565539761</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>98.8380868486705</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>141.0873716173086</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.9303493528027</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>312.5779919627051</v>
+        <v>344.0105973246425</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.73058256319007</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>116.9634078107694</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27788,7 +27788,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>15.54645947481152</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27830,7 +27830,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.22651541493755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>131.9152760866399</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>135.2951081646165</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.6678699418028</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>18.02492893200034</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28031,7 +28031,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>128.257138091228</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28073,10 +28073,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>257.7369837552891</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290086</v>
+        <v>3.91165642929009</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850204</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712761</v>
+        <v>67.06726639712768</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410141</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911398</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531189</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504381</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689874</v>
       </c>
       <c r="J12" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869705</v>
+        <v>44.37251283869709</v>
       </c>
       <c r="M12" t="n">
-        <v>51.7806295665393</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309355</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806973</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927055</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133746</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146318</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795557</v>
+        <v>7.703624419795565</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T13" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106178</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H14" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850204</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757799</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712761</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P14" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R14" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S14" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T14" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H15" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I15" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J15" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L15" t="n">
-        <v>44.37251283869705</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M15" t="n">
-        <v>51.7806295665393</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N15" t="n">
-        <v>53.15110875309355</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806973</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R15" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H16" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J16" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L16" t="n">
-        <v>25.47211357891965</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M16" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O16" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795557</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S16" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T16" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.994926520915139</v>
       </c>
       <c r="H23" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I23" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J23" t="n">
         <v>84.44314480452135</v>
@@ -32724,10 +32724,10 @@
         <v>177.5272264431907</v>
       </c>
       <c r="O23" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P23" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q23" t="n">
         <v>107.4408713354748</v>
@@ -32739,7 +32739,7 @@
         <v>22.67188809535375</v>
       </c>
       <c r="T23" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U23" t="n">
         <v>0.0795941216732111</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858694</v>
       </c>
       <c r="H24" t="n">
         <v>5.141212401084581</v>
@@ -32791,7 +32791,7 @@
         <v>50.2937585521176</v>
       </c>
       <c r="K24" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757085</v>
       </c>
       <c r="L24" t="n">
         <v>115.5838873368266</v>
@@ -32809,13 +32809,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q24" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063835</v>
       </c>
       <c r="R24" t="n">
         <v>33.05131823331214</v>
       </c>
       <c r="S24" t="n">
-        <v>9.887844922158575</v>
+        <v>9.887844922158576</v>
       </c>
       <c r="T24" t="n">
         <v>2.145674022069358</v>
@@ -32870,22 +32870,22 @@
         <v>31.55268784996416</v>
       </c>
       <c r="K25" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602855</v>
       </c>
       <c r="M25" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056989</v>
       </c>
       <c r="N25" t="n">
-        <v>68.29450875381858</v>
+        <v>68.29450875381859</v>
       </c>
       <c r="O25" t="n">
-        <v>63.08103262070759</v>
+        <v>63.0810326207076</v>
       </c>
       <c r="P25" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214647</v>
       </c>
       <c r="Q25" t="n">
         <v>37.37068378372379</v>
@@ -32894,7 +32894,7 @@
         <v>20.06681163763954</v>
       </c>
       <c r="S25" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030125</v>
       </c>
       <c r="T25" t="n">
         <v>1.906874538958873</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.994926520915139</v>
       </c>
       <c r="H26" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I26" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J26" t="n">
         <v>84.44314480452135</v>
@@ -32961,10 +32961,10 @@
         <v>177.5272264431907</v>
       </c>
       <c r="O26" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P26" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q26" t="n">
         <v>107.4408713354748</v>
@@ -32976,7 +32976,7 @@
         <v>22.67188809535375</v>
       </c>
       <c r="T26" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U26" t="n">
         <v>0.0795941216732111</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858694</v>
       </c>
       <c r="H27" t="n">
         <v>5.141212401084581</v>
@@ -33028,7 +33028,7 @@
         <v>50.2937585521176</v>
       </c>
       <c r="K27" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757085</v>
       </c>
       <c r="L27" t="n">
         <v>115.5838873368266</v>
@@ -33046,13 +33046,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q27" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063835</v>
       </c>
       <c r="R27" t="n">
         <v>33.05131823331214</v>
       </c>
       <c r="S27" t="n">
-        <v>9.887844922158575</v>
+        <v>9.887844922158576</v>
       </c>
       <c r="T27" t="n">
         <v>2.145674022069358</v>
@@ -33107,22 +33107,22 @@
         <v>31.55268784996416</v>
       </c>
       <c r="K28" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020084</v>
       </c>
       <c r="L28" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602855</v>
       </c>
       <c r="M28" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056989</v>
       </c>
       <c r="N28" t="n">
-        <v>68.29450875381858</v>
+        <v>68.29450875381859</v>
       </c>
       <c r="O28" t="n">
-        <v>63.08103262070759</v>
+        <v>63.0810326207076</v>
       </c>
       <c r="P28" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214647</v>
       </c>
       <c r="Q28" t="n">
         <v>37.37068378372379</v>
@@ -33131,7 +33131,7 @@
         <v>20.06681163763954</v>
       </c>
       <c r="S28" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030125</v>
       </c>
       <c r="T28" t="n">
         <v>1.906874538958873</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.994926520915139</v>
       </c>
       <c r="H29" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I29" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J29" t="n">
         <v>84.44314480452135</v>
@@ -33198,10 +33198,10 @@
         <v>177.5272264431907</v>
       </c>
       <c r="O29" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P29" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q29" t="n">
         <v>107.4408713354748</v>
@@ -33213,7 +33213,7 @@
         <v>22.67188809535375</v>
       </c>
       <c r="T29" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U29" t="n">
         <v>0.0795941216732111</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858694</v>
       </c>
       <c r="H30" t="n">
         <v>5.141212401084581</v>
@@ -33265,7 +33265,7 @@
         <v>50.2937585521176</v>
       </c>
       <c r="K30" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757085</v>
       </c>
       <c r="L30" t="n">
         <v>115.5838873368266</v>
@@ -33283,13 +33283,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q30" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063835</v>
       </c>
       <c r="R30" t="n">
         <v>33.05131823331214</v>
       </c>
       <c r="S30" t="n">
-        <v>9.887844922158575</v>
+        <v>9.887844922158576</v>
       </c>
       <c r="T30" t="n">
         <v>2.145674022069358</v>
@@ -33344,22 +33344,22 @@
         <v>31.55268784996416</v>
       </c>
       <c r="K31" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020084</v>
       </c>
       <c r="L31" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602855</v>
       </c>
       <c r="M31" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056989</v>
       </c>
       <c r="N31" t="n">
-        <v>68.29450875381858</v>
+        <v>68.29450875381859</v>
       </c>
       <c r="O31" t="n">
-        <v>63.08103262070759</v>
+        <v>63.0810326207076</v>
       </c>
       <c r="P31" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214647</v>
       </c>
       <c r="Q31" t="n">
         <v>37.37068378372379</v>
@@ -33368,7 +33368,7 @@
         <v>20.06681163763954</v>
       </c>
       <c r="S31" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030125</v>
       </c>
       <c r="T31" t="n">
         <v>1.906874538958873</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.994926520915139</v>
       </c>
       <c r="H32" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I32" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J32" t="n">
         <v>84.44314480452135</v>
@@ -33435,10 +33435,10 @@
         <v>177.5272264431907</v>
       </c>
       <c r="O32" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P32" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q32" t="n">
         <v>107.4408713354748</v>
@@ -33450,7 +33450,7 @@
         <v>22.67188809535375</v>
       </c>
       <c r="T32" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U32" t="n">
         <v>0.0795941216732111</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858694</v>
       </c>
       <c r="H33" t="n">
         <v>5.141212401084581</v>
@@ -33502,7 +33502,7 @@
         <v>50.2937585521176</v>
       </c>
       <c r="K33" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757085</v>
       </c>
       <c r="L33" t="n">
         <v>115.5838873368266</v>
@@ -33520,13 +33520,13 @@
         <v>101.6521823426069</v>
       </c>
       <c r="Q33" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063835</v>
       </c>
       <c r="R33" t="n">
         <v>33.05131823331214</v>
       </c>
       <c r="S33" t="n">
-        <v>9.887844922158575</v>
+        <v>9.887844922158576</v>
       </c>
       <c r="T33" t="n">
         <v>2.145674022069358</v>
@@ -33581,22 +33581,22 @@
         <v>31.55268784996416</v>
       </c>
       <c r="K34" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020084</v>
       </c>
       <c r="L34" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602855</v>
       </c>
       <c r="M34" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056989</v>
       </c>
       <c r="N34" t="n">
-        <v>68.29450875381858</v>
+        <v>68.29450875381859</v>
       </c>
       <c r="O34" t="n">
-        <v>63.08103262070759</v>
+        <v>63.0810326207076</v>
       </c>
       <c r="P34" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214647</v>
       </c>
       <c r="Q34" t="n">
         <v>37.37068378372379</v>
@@ -33605,7 +33605,7 @@
         <v>20.06681163763954</v>
       </c>
       <c r="S34" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030125</v>
       </c>
       <c r="T34" t="n">
         <v>1.906874538958873</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.9949265209151393</v>
       </c>
       <c r="H35" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I35" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J35" t="n">
-        <v>84.44314480452135</v>
+        <v>84.44314480452138</v>
       </c>
       <c r="K35" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348593</v>
       </c>
       <c r="L35" t="n">
-        <v>157.0068669493159</v>
+        <v>157.006866949316</v>
       </c>
       <c r="M35" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656406</v>
       </c>
       <c r="N35" t="n">
-        <v>177.5272264431907</v>
+        <v>177.5272264431908</v>
       </c>
       <c r="O35" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P35" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q35" t="n">
         <v>107.4408713354748</v>
       </c>
       <c r="R35" t="n">
-        <v>62.49755306943565</v>
+        <v>62.49755306943567</v>
       </c>
       <c r="S35" t="n">
-        <v>22.67188809535375</v>
+        <v>22.67188809535376</v>
       </c>
       <c r="T35" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0795941216732111</v>
+        <v>0.07959412167321113</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858696</v>
       </c>
       <c r="H36" t="n">
-        <v>5.141212401084581</v>
+        <v>5.141212401084583</v>
       </c>
       <c r="I36" t="n">
         <v>18.32811868688191</v>
       </c>
       <c r="J36" t="n">
-        <v>50.2937585521176</v>
+        <v>50.29375855211762</v>
       </c>
       <c r="K36" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757088</v>
       </c>
       <c r="L36" t="n">
         <v>115.5838873368266</v>
       </c>
       <c r="M36" t="n">
-        <v>134.8809447823143</v>
+        <v>134.8809447823144</v>
       </c>
       <c r="N36" t="n">
         <v>138.4508420399249</v>
@@ -33754,22 +33754,22 @@
         <v>126.6554718990169</v>
       </c>
       <c r="P36" t="n">
-        <v>101.6521823426069</v>
+        <v>101.652182342607</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063837</v>
       </c>
       <c r="R36" t="n">
-        <v>33.05131823331214</v>
+        <v>33.05131823331216</v>
       </c>
       <c r="S36" t="n">
-        <v>9.887844922158575</v>
+        <v>9.88784492215858</v>
       </c>
       <c r="T36" t="n">
-        <v>2.145674022069358</v>
+        <v>2.145674022069359</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03502188284117563</v>
+        <v>0.03502188284117564</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4462897857137788</v>
+        <v>0.446289785713779</v>
       </c>
       <c r="H37" t="n">
-        <v>3.967921912982509</v>
+        <v>3.967921912982511</v>
       </c>
       <c r="I37" t="n">
-        <v>13.42115101037437</v>
+        <v>13.42115101037438</v>
       </c>
       <c r="J37" t="n">
-        <v>31.55268784996416</v>
+        <v>31.55268784996417</v>
       </c>
       <c r="K37" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020086</v>
       </c>
       <c r="L37" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602857</v>
       </c>
       <c r="M37" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056992</v>
       </c>
       <c r="N37" t="n">
-        <v>68.29450875381858</v>
+        <v>68.2945087538186</v>
       </c>
       <c r="O37" t="n">
-        <v>63.08103262070759</v>
+        <v>63.08103262070762</v>
       </c>
       <c r="P37" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214648</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.37068378372379</v>
+        <v>37.37068378372381</v>
       </c>
       <c r="R37" t="n">
-        <v>20.06681163763954</v>
+        <v>20.06681163763955</v>
       </c>
       <c r="S37" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030127</v>
       </c>
       <c r="T37" t="n">
         <v>1.906874538958873</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0243430792207516</v>
+        <v>0.02434307922075161</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.9949265209151393</v>
       </c>
       <c r="H38" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I38" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J38" t="n">
-        <v>84.44314480452135</v>
+        <v>84.44314480452138</v>
       </c>
       <c r="K38" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348593</v>
       </c>
       <c r="L38" t="n">
-        <v>157.0068669493159</v>
+        <v>157.006866949316</v>
       </c>
       <c r="M38" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656406</v>
       </c>
       <c r="N38" t="n">
-        <v>177.5272264431907</v>
+        <v>177.5272264431908</v>
       </c>
       <c r="O38" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P38" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q38" t="n">
         <v>107.4408713354748</v>
       </c>
       <c r="R38" t="n">
-        <v>62.49755306943565</v>
+        <v>62.49755306943567</v>
       </c>
       <c r="S38" t="n">
-        <v>22.67188809535375</v>
+        <v>22.67188809535376</v>
       </c>
       <c r="T38" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0795941216732111</v>
+        <v>0.07959412167321113</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858696</v>
       </c>
       <c r="H39" t="n">
-        <v>5.141212401084581</v>
+        <v>5.141212401084583</v>
       </c>
       <c r="I39" t="n">
         <v>18.32811868688191</v>
       </c>
       <c r="J39" t="n">
-        <v>50.2937585521176</v>
+        <v>50.29375855211762</v>
       </c>
       <c r="K39" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757088</v>
       </c>
       <c r="L39" t="n">
         <v>115.5838873368266</v>
       </c>
       <c r="M39" t="n">
-        <v>134.8809447823143</v>
+        <v>134.8809447823144</v>
       </c>
       <c r="N39" t="n">
         <v>138.4508420399249</v>
@@ -33991,22 +33991,22 @@
         <v>126.6554718990169</v>
       </c>
       <c r="P39" t="n">
-        <v>101.6521823426069</v>
+        <v>101.652182342607</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063837</v>
       </c>
       <c r="R39" t="n">
-        <v>33.05131823331214</v>
+        <v>33.05131823331216</v>
       </c>
       <c r="S39" t="n">
-        <v>9.887844922158575</v>
+        <v>9.88784492215858</v>
       </c>
       <c r="T39" t="n">
-        <v>2.145674022069358</v>
+        <v>2.145674022069359</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03502188284117563</v>
+        <v>0.03502188284117564</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4462897857137788</v>
+        <v>0.446289785713779</v>
       </c>
       <c r="H40" t="n">
-        <v>3.967921912982509</v>
+        <v>3.967921912982511</v>
       </c>
       <c r="I40" t="n">
-        <v>13.42115101037437</v>
+        <v>13.42115101037438</v>
       </c>
       <c r="J40" t="n">
-        <v>31.55268784996416</v>
+        <v>31.55268784996417</v>
       </c>
       <c r="K40" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020086</v>
       </c>
       <c r="L40" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602857</v>
       </c>
       <c r="M40" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056992</v>
       </c>
       <c r="N40" t="n">
-        <v>68.29450875381858</v>
+        <v>68.2945087538186</v>
       </c>
       <c r="O40" t="n">
-        <v>63.08103262070759</v>
+        <v>63.08103262070762</v>
       </c>
       <c r="P40" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214648</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.37068378372379</v>
+        <v>37.37068378372381</v>
       </c>
       <c r="R40" t="n">
-        <v>20.06681163763954</v>
+        <v>20.06681163763955</v>
       </c>
       <c r="S40" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030127</v>
       </c>
       <c r="T40" t="n">
         <v>1.906874538958873</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0243430792207516</v>
+        <v>0.02434307922075161</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.9949265209151393</v>
       </c>
       <c r="H41" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I41" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J41" t="n">
-        <v>84.44314480452135</v>
+        <v>84.44314480452138</v>
       </c>
       <c r="K41" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348593</v>
       </c>
       <c r="L41" t="n">
-        <v>157.0068669493159</v>
+        <v>157.006866949316</v>
       </c>
       <c r="M41" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656406</v>
       </c>
       <c r="N41" t="n">
-        <v>177.5272264431907</v>
+        <v>177.5272264431908</v>
       </c>
       <c r="O41" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P41" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q41" t="n">
         <v>107.4408713354748</v>
       </c>
       <c r="R41" t="n">
-        <v>62.49755306943565</v>
+        <v>62.49755306943567</v>
       </c>
       <c r="S41" t="n">
-        <v>22.67188809535375</v>
+        <v>22.67188809535376</v>
       </c>
       <c r="T41" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0795941216732111</v>
+        <v>0.07959412167321113</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858696</v>
       </c>
       <c r="H42" t="n">
-        <v>5.141212401084581</v>
+        <v>5.141212401084583</v>
       </c>
       <c r="I42" t="n">
         <v>18.32811868688191</v>
       </c>
       <c r="J42" t="n">
-        <v>50.2937585521176</v>
+        <v>50.29375855211762</v>
       </c>
       <c r="K42" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757088</v>
       </c>
       <c r="L42" t="n">
         <v>115.5838873368266</v>
       </c>
       <c r="M42" t="n">
-        <v>134.8809447823143</v>
+        <v>134.8809447823144</v>
       </c>
       <c r="N42" t="n">
         <v>138.4508420399249</v>
@@ -34228,22 +34228,22 @@
         <v>126.6554718990169</v>
       </c>
       <c r="P42" t="n">
-        <v>101.6521823426069</v>
+        <v>101.652182342607</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063837</v>
       </c>
       <c r="R42" t="n">
-        <v>33.05131823331214</v>
+        <v>33.05131823331216</v>
       </c>
       <c r="S42" t="n">
-        <v>9.887844922158575</v>
+        <v>9.88784492215858</v>
       </c>
       <c r="T42" t="n">
-        <v>2.145674022069358</v>
+        <v>2.145674022069359</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03502188284117563</v>
+        <v>0.03502188284117564</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4462897857137788</v>
+        <v>0.446289785713779</v>
       </c>
       <c r="H43" t="n">
-        <v>3.967921912982509</v>
+        <v>3.967921912982511</v>
       </c>
       <c r="I43" t="n">
-        <v>13.42115101037437</v>
+        <v>13.42115101037438</v>
       </c>
       <c r="J43" t="n">
-        <v>31.55268784996416</v>
+        <v>31.55268784996417</v>
       </c>
       <c r="K43" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020086</v>
       </c>
       <c r="L43" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602857</v>
       </c>
       <c r="M43" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056992</v>
       </c>
       <c r="N43" t="n">
-        <v>68.29450875381858</v>
+        <v>68.2945087538186</v>
       </c>
       <c r="O43" t="n">
-        <v>63.08103262070759</v>
+        <v>63.08103262070762</v>
       </c>
       <c r="P43" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214648</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.37068378372379</v>
+        <v>37.37068378372381</v>
       </c>
       <c r="R43" t="n">
-        <v>20.06681163763954</v>
+        <v>20.06681163763955</v>
       </c>
       <c r="S43" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030127</v>
       </c>
       <c r="T43" t="n">
         <v>1.906874538958873</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0243430792207516</v>
+        <v>0.02434307922075161</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9949265209151389</v>
+        <v>0.9949265209151393</v>
       </c>
       <c r="H44" t="n">
         <v>10.18929123232217</v>
       </c>
       <c r="I44" t="n">
-        <v>38.35690469758093</v>
+        <v>38.35690469758094</v>
       </c>
       <c r="J44" t="n">
-        <v>84.44314480452135</v>
+        <v>84.44314480452138</v>
       </c>
       <c r="K44" t="n">
-        <v>126.5583844348592</v>
+        <v>126.5583844348593</v>
       </c>
       <c r="L44" t="n">
-        <v>157.0068669493159</v>
+        <v>157.006866949316</v>
       </c>
       <c r="M44" t="n">
-        <v>174.7003914656405</v>
+        <v>174.7003914656406</v>
       </c>
       <c r="N44" t="n">
-        <v>177.5272264431907</v>
+        <v>177.5272264431908</v>
       </c>
       <c r="O44" t="n">
-        <v>167.6339258508407</v>
+        <v>167.6339258508408</v>
       </c>
       <c r="P44" t="n">
-        <v>143.0716773657482</v>
+        <v>143.0716773657483</v>
       </c>
       <c r="Q44" t="n">
         <v>107.4408713354748</v>
       </c>
       <c r="R44" t="n">
-        <v>62.49755306943565</v>
+        <v>62.49755306943567</v>
       </c>
       <c r="S44" t="n">
-        <v>22.67188809535375</v>
+        <v>22.67188809535376</v>
       </c>
       <c r="T44" t="n">
-        <v>4.355290845306023</v>
+        <v>4.355290845306024</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0795941216732111</v>
+        <v>0.07959412167321113</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,25 +34438,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5323326191858693</v>
+        <v>0.5323326191858696</v>
       </c>
       <c r="H45" t="n">
-        <v>5.141212401084581</v>
+        <v>5.141212401084583</v>
       </c>
       <c r="I45" t="n">
         <v>18.32811868688191</v>
       </c>
       <c r="J45" t="n">
-        <v>50.2937585521176</v>
+        <v>50.29375855211762</v>
       </c>
       <c r="K45" t="n">
-        <v>85.96004403757084</v>
+        <v>85.96004403757088</v>
       </c>
       <c r="L45" t="n">
         <v>115.5838873368266</v>
       </c>
       <c r="M45" t="n">
-        <v>134.8809447823143</v>
+        <v>134.8809447823144</v>
       </c>
       <c r="N45" t="n">
         <v>138.4508420399249</v>
@@ -34465,22 +34465,22 @@
         <v>126.6554718990169</v>
       </c>
       <c r="P45" t="n">
-        <v>101.6521823426069</v>
+        <v>101.652182342607</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.95179188063834</v>
+        <v>67.95179188063837</v>
       </c>
       <c r="R45" t="n">
-        <v>33.05131823331214</v>
+        <v>33.05131823331216</v>
       </c>
       <c r="S45" t="n">
-        <v>9.887844922158575</v>
+        <v>9.88784492215858</v>
       </c>
       <c r="T45" t="n">
-        <v>2.145674022069358</v>
+        <v>2.145674022069359</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03502188284117563</v>
+        <v>0.03502188284117564</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4462897857137788</v>
+        <v>0.446289785713779</v>
       </c>
       <c r="H46" t="n">
-        <v>3.967921912982509</v>
+        <v>3.967921912982511</v>
       </c>
       <c r="I46" t="n">
-        <v>13.42115101037437</v>
+        <v>13.42115101037438</v>
       </c>
       <c r="J46" t="n">
-        <v>31.55268784996416</v>
+        <v>31.55268784996417</v>
       </c>
       <c r="K46" t="n">
-        <v>51.85075874020083</v>
+        <v>51.85075874020086</v>
       </c>
       <c r="L46" t="n">
-        <v>66.35111959602854</v>
+        <v>66.35111959602857</v>
       </c>
       <c r="M46" t="n">
-        <v>69.95795250056987</v>
+        <v>69.95795250056992</v>
       </c>
       <c r="N46" t="n">
-        <v>68.29450875381858</v>
+        <v>68.2945087538186</v>
       </c>
       <c r="O46" t="n">
-        <v>63.08103262070759</v>
+        <v>63.08103262070762</v>
       </c>
       <c r="P46" t="n">
-        <v>53.97672099214646</v>
+        <v>53.97672099214648</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.37068378372379</v>
+        <v>37.37068378372381</v>
       </c>
       <c r="R46" t="n">
-        <v>20.06681163763954</v>
+        <v>20.06681163763955</v>
       </c>
       <c r="S46" t="n">
-        <v>7.777613811030124</v>
+        <v>7.777613811030127</v>
       </c>
       <c r="T46" t="n">
         <v>1.906874538958873</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0243430792207516</v>
+        <v>0.02434307922075161</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34780,13 +34780,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>272.5044558454301</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -35017,16 +35017,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35035,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>140.5082087933099</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35269,7 +35269,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>411.674110750049</v>
       </c>
       <c r="M11" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N11" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
         <v>372.4398977605624</v>
       </c>
       <c r="P11" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
         <v>136.6325338001977</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054463</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35503,13 +35503,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>382.8480484128792</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L13" t="n">
         <v>127.0954261044343</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K14" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L14" t="n">
-        <v>411.6741107500492</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M14" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P14" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.1704866091316</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M15" t="n">
-        <v>214.1545323169006</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O15" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P15" t="n">
-        <v>344.1715415558447</v>
+        <v>282.235142922959</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M16" t="n">
         <v>146.0421320399604</v>
@@ -35819,10 +35819,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O16" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>317.7686829872564</v>
       </c>
       <c r="L18" t="n">
-        <v>485.1009026601757</v>
+        <v>324.581355585979</v>
       </c>
       <c r="M18" t="n">
-        <v>624.8136250956743</v>
+        <v>19.39704222067442</v>
       </c>
       <c r="N18" t="n">
         <v>654.8807876188361</v>
       </c>
       <c r="O18" t="n">
-        <v>10.79602328790578</v>
+        <v>522.8170383476541</v>
       </c>
       <c r="P18" t="n">
-        <v>152.8844606609337</v>
+        <v>406.7995755503819</v>
       </c>
       <c r="Q18" t="n">
         <v>227.3170744923497</v>
@@ -36205,16 +36205,16 @@
         <v>317.7686829872564</v>
       </c>
       <c r="L21" t="n">
-        <v>485.1009026601757</v>
+        <v>342.3098593575987</v>
       </c>
       <c r="M21" t="n">
-        <v>370.898510206226</v>
+        <v>624.8136250956743</v>
       </c>
       <c r="N21" t="n">
-        <v>654.8807876188361</v>
+        <v>31.73570097221653</v>
       </c>
       <c r="O21" t="n">
-        <v>10.79602328790578</v>
+        <v>522.8170383476541</v>
       </c>
       <c r="P21" t="n">
         <v>406.7995755503819</v>
@@ -36378,7 +36378,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K24" t="n">
-        <v>317.7686829872564</v>
+        <v>63.82110685669685</v>
       </c>
       <c r="L24" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M24" t="n">
-        <v>568.2870185333243</v>
+        <v>624.8136250956744</v>
       </c>
       <c r="N24" t="n">
-        <v>654.8807876188361</v>
+        <v>31.73570097221653</v>
       </c>
       <c r="O24" t="n">
         <v>522.8170383476541</v>
       </c>
       <c r="P24" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468914</v>
       </c>
       <c r="L25" t="n">
         <v>167.9744321215432</v>
@@ -36600,7 +36600,7 @@
         <v>369.1244168033267</v>
       </c>
       <c r="L26" t="n">
-        <v>508.4062337017869</v>
+        <v>508.4062337017868</v>
       </c>
       <c r="M26" t="n">
         <v>571.9116705091637</v>
@@ -36615,7 +36615,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K27" t="n">
         <v>317.7686829872564</v>
       </c>
       <c r="L27" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601757</v>
       </c>
       <c r="M27" t="n">
-        <v>624.8136250956743</v>
+        <v>19.39704222067445</v>
       </c>
       <c r="N27" t="n">
-        <v>371.0371065641364</v>
+        <v>654.8807876188361</v>
       </c>
       <c r="O27" t="n">
-        <v>522.8170383476541</v>
+        <v>251.1409584454751</v>
       </c>
       <c r="P27" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q27" t="n">
         <v>227.3170744923497</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468914</v>
       </c>
       <c r="L28" t="n">
         <v>167.9744321215432</v>
@@ -36852,7 +36852,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>485.1009026601757</v>
       </c>
       <c r="M30" t="n">
-        <v>19.39704222067442</v>
+        <v>370.8660489651148</v>
       </c>
       <c r="N30" t="n">
-        <v>383.204707716657</v>
+        <v>31.73570097221653</v>
       </c>
       <c r="O30" t="n">
         <v>522.8170383476541</v>
       </c>
       <c r="P30" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q30" t="n">
         <v>227.3170744923497</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468914</v>
       </c>
       <c r="L31" t="n">
         <v>167.9744321215432</v>
@@ -37089,7 +37089,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K33" t="n">
         <v>317.7686829872564</v>
@@ -37156,7 +37156,7 @@
         <v>485.1009026601757</v>
       </c>
       <c r="M33" t="n">
-        <v>482.0225817930972</v>
+        <v>370.8660489651148</v>
       </c>
       <c r="N33" t="n">
         <v>31.73570097221653</v>
@@ -37165,7 +37165,7 @@
         <v>522.8170383476541</v>
       </c>
       <c r="P33" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q33" t="n">
         <v>227.3170744923497</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468914</v>
       </c>
       <c r="L34" t="n">
         <v>167.9744321215432</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>157.1689471002846</v>
+        <v>157.1689471002847</v>
       </c>
       <c r="K35" t="n">
         <v>369.1244168033267</v>
       </c>
       <c r="L35" t="n">
-        <v>508.4062337017868</v>
+        <v>508.406233701787</v>
       </c>
       <c r="M35" t="n">
         <v>571.9116705091637</v>
@@ -37326,7 +37326,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>317.7686829872564</v>
       </c>
       <c r="L36" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601758</v>
       </c>
       <c r="M36" t="n">
-        <v>624.8136250956743</v>
+        <v>624.8136250956744</v>
       </c>
       <c r="N36" t="n">
-        <v>654.8807876188361</v>
+        <v>289.8091399014052</v>
       </c>
       <c r="O36" t="n">
-        <v>522.8170383476541</v>
+        <v>10.79602328790584</v>
       </c>
       <c r="P36" t="n">
-        <v>11.79936166769967</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q36" t="n">
         <v>227.3170744923497</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468916</v>
       </c>
       <c r="L37" t="n">
         <v>167.9744321215432</v>
@@ -37475,7 +37475,7 @@
         <v>189.1433122254201</v>
       </c>
       <c r="N37" t="n">
-        <v>187.9130357736169</v>
+        <v>187.913035773617</v>
       </c>
       <c r="O37" t="n">
         <v>162.5392614042325</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>157.1689471002846</v>
+        <v>157.1689471002847</v>
       </c>
       <c r="K38" t="n">
         <v>369.1244168033267</v>
@@ -37554,7 +37554,7 @@
         <v>571.9116705091637</v>
       </c>
       <c r="N38" t="n">
-        <v>559.6801140065398</v>
+        <v>559.68011400654</v>
       </c>
       <c r="O38" t="n">
         <v>475.7193647122892</v>
@@ -37563,7 +37563,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.8269861703606</v>
+        <v>202.8269861703607</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>317.7686829872564</v>
       </c>
       <c r="L39" t="n">
-        <v>485.1009026601757</v>
+        <v>485.1009026601758</v>
       </c>
       <c r="M39" t="n">
-        <v>624.8136250956743</v>
+        <v>19.39704222067448</v>
       </c>
       <c r="N39" t="n">
-        <v>184.5877003920392</v>
+        <v>383.204707716657</v>
       </c>
       <c r="O39" t="n">
         <v>522.8170383476541</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q39" t="n">
         <v>227.3170744923497</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468916</v>
       </c>
       <c r="L40" t="n">
         <v>167.9744321215432</v>
@@ -37712,7 +37712,7 @@
         <v>189.1433122254201</v>
       </c>
       <c r="N40" t="n">
-        <v>187.9130357736169</v>
+        <v>187.913035773617</v>
       </c>
       <c r="O40" t="n">
         <v>162.5392614042325</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>157.1689471002846</v>
+        <v>157.1689471002847</v>
       </c>
       <c r="K41" t="n">
         <v>369.1244168033267</v>
       </c>
       <c r="L41" t="n">
-        <v>508.4062337017868</v>
+        <v>508.406233701787</v>
       </c>
       <c r="M41" t="n">
-        <v>73.37981169534</v>
+        <v>571.9116705091637</v>
       </c>
       <c r="N41" t="n">
-        <v>559.68011400654</v>
+        <v>61.14825519271682</v>
       </c>
       <c r="O41" t="n">
         <v>475.7193647122892</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>111.1565328279824</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>317.7686829872564</v>
       </c>
       <c r="L42" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601758</v>
       </c>
       <c r="M42" t="n">
-        <v>476.3373049089954</v>
+        <v>624.8136250956744</v>
       </c>
       <c r="N42" t="n">
-        <v>635.6739684151826</v>
+        <v>31.73570097221659</v>
       </c>
       <c r="O42" t="n">
-        <v>522.8170383476541</v>
+        <v>380.0259950450769</v>
       </c>
       <c r="P42" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.3170744923497</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468916</v>
       </c>
       <c r="L43" t="n">
         <v>167.9744321215432</v>
@@ -37949,7 +37949,7 @@
         <v>189.1433122254201</v>
       </c>
       <c r="N43" t="n">
-        <v>187.9130357736169</v>
+        <v>187.913035773617</v>
       </c>
       <c r="O43" t="n">
         <v>162.5392614042325</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>157.1689471002846</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>369.1244168033267</v>
+        <v>27.76150508978841</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>508.406233701787</v>
       </c>
       <c r="M44" t="n">
-        <v>378.9590592267663</v>
+        <v>571.9116705091637</v>
       </c>
       <c r="N44" t="n">
         <v>559.68011400654</v>
@@ -38037,7 +38037,7 @@
         <v>373.5331889375192</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.8269861703606</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>111.1565328279824</v>
       </c>
       <c r="K45" t="n">
         <v>317.7686829872564</v>
       </c>
       <c r="L45" t="n">
-        <v>3.008453765678809</v>
+        <v>485.1009026601758</v>
       </c>
       <c r="M45" t="n">
-        <v>624.8136250956743</v>
+        <v>370.8660489651148</v>
       </c>
       <c r="N45" t="n">
-        <v>371.0371065641364</v>
+        <v>31.73570097221659</v>
       </c>
       <c r="O45" t="n">
         <v>522.8170383476541</v>
       </c>
       <c r="P45" t="n">
-        <v>406.7995755503819</v>
+        <v>406.799575550382</v>
       </c>
       <c r="Q45" t="n">
         <v>227.3170744923497</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>85.79438272468913</v>
+        <v>85.79438272468916</v>
       </c>
       <c r="L46" t="n">
         <v>167.9744321215432</v>
@@ -38186,7 +38186,7 @@
         <v>189.1433122254201</v>
       </c>
       <c r="N46" t="n">
-        <v>187.9130357736169</v>
+        <v>187.913035773617</v>
       </c>
       <c r="O46" t="n">
         <v>162.5392614042325</v>
